--- a/November'21/02.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/02.11.2021/Daily Sales Info.....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14721,7 +14721,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
@@ -15899,7 +15899,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -16271,7 +16271,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
@@ -17449,7 +17449,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -17821,7 +17821,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -18999,7 +18999,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -19371,7 +19371,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
@@ -20549,7 +20549,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -20921,7 +20921,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -22099,7 +22099,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -22471,7 +22471,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -23649,7 +23649,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -24021,7 +24021,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -25199,7 +25199,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -25571,7 +25571,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -26749,7 +26749,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -27121,7 +27121,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -28299,7 +28299,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -28671,7 +28671,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -29849,7 +29849,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -30126,7 +30126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
@@ -31808,7 +31808,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -32986,7 +32986,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -33358,7 +33358,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -34536,7 +34536,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -34908,7 +34908,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -36086,7 +36086,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -36458,7 +36458,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -37636,7 +37636,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38008,7 +38008,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -39186,7 +39186,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -39558,7 +39558,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -40736,7 +40736,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41108,7 +41108,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -42286,7 +42286,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -42658,7 +42658,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -43836,7 +43836,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44208,7 +44208,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -45386,7 +45386,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -45758,7 +45758,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -46936,7 +46936,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47213,9 +47213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48321,7 +48321,9 @@
       <c r="C26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="29">
+        <v>5345</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -48332,29 +48334,29 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>146.98750000000001</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5198.0124999999998</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -48411,7 +48413,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -48447,15 +48449,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>146.98750000000001</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -48467,15 +48469,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5198.0124999999998</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48486,7 +48488,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -48858,7 +48860,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50036,7 +50038,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -50408,7 +50410,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -51586,7 +51588,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53567,7 +53569,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E26+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -53603,15 +53605,15 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>146.98750000000001</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
@@ -53620,15 +53622,15 @@
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5198.0124999999998</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50.777499999999996</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -53715,7 +53717,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>185943</v>
+        <v>191288</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -53751,15 +53753,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>192273</v>
+        <v>197618</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>219997</v>
+        <v>225342</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>5287.5074999999997</v>
+        <v>5434.4949999999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -53771,15 +53773,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>213896.49249999999</v>
+        <v>219094.505</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1826.5934999999997</v>
+        <v>1877.3709999999996</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>1013.5935000000001</v>
+        <v>1064.3710000000001</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53790,7 +53792,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54158,7 +54160,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
@@ -55336,7 +55338,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -55708,7 +55710,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
@@ -56889,7 +56891,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -57261,7 +57263,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
@@ -58439,7 +58441,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -58811,7 +58813,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
@@ -59989,7 +59991,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -60361,7 +60363,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
@@ -61539,7 +61541,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -61911,7 +61913,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
@@ -63089,7 +63091,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>170047</v>
+        <v>164702</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
